--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Quarterly Results of Expleo Solutions(in Rs. Cr.)</t>
   </si>
@@ -209,6 +209,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>50.43</t>
+  </si>
+  <si>
+    <t>50.97</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>51.32</t>
+  </si>
+  <si>
+    <t>56.44</t>
+  </si>
+  <si>
+    <t>53.80</t>
+  </si>
+  <si>
+    <t>52.59</t>
+  </si>
+  <si>
+    <t>58.30</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>67.10</t>
+  </si>
+  <si>
+    <t>72.20</t>
+  </si>
+  <si>
+    <t>73.10</t>
+  </si>
+  <si>
+    <t>68.40</t>
+  </si>
+  <si>
+    <t>60.90</t>
+  </si>
+  <si>
+    <t>57.50</t>
+  </si>
+  <si>
+    <t>60.70</t>
+  </si>
+  <si>
+    <t>69.70</t>
+  </si>
+  <si>
+    <t>70.40</t>
+  </si>
+  <si>
+    <t>75.64</t>
+  </si>
+  <si>
+    <t>73.11</t>
+  </si>
+  <si>
+    <t>75.78</t>
+  </si>
+  <si>
+    <t>70.54</t>
+  </si>
+  <si>
+    <t>65.53</t>
+  </si>
+  <si>
+    <t>59.89</t>
+  </si>
+  <si>
+    <t>65.67</t>
+  </si>
+  <si>
+    <t>68.19</t>
+  </si>
+  <si>
+    <t>75.66</t>
+  </si>
+  <si>
+    <t>75.81</t>
+  </si>
+  <si>
+    <t>73.63</t>
+  </si>
+  <si>
+    <t>72.11</t>
+  </si>
+  <si>
+    <t>79.34</t>
+  </si>
+  <si>
+    <t>88.03</t>
+  </si>
+  <si>
+    <t>97.09</t>
+  </si>
+  <si>
+    <t>105.84</t>
+  </si>
+  <si>
+    <t>113.55</t>
+  </si>
+  <si>
+    <t>127.44</t>
+  </si>
+  <si>
+    <t>131.05</t>
+  </si>
+  <si>
+    <t>135.12</t>
+  </si>
+  <si>
+    <t>231.08</t>
+  </si>
+  <si>
+    <t>225.12</t>
+  </si>
+  <si>
+    <t>234.11</t>
+  </si>
+  <si>
+    <t>250.23</t>
+  </si>
+  <si>
+    <t>255.41</t>
+  </si>
+  <si>
+    <t>252.17</t>
+  </si>
+  <si>
+    <t>259.26</t>
   </si>
 </sst>
 </file>
@@ -638,8 +773,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>50.43</v>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
         <v>50.43</v>
@@ -700,8 +835,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>50.97</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3">
         <v>50.97</v>
@@ -762,8 +897,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>50</v>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -824,8 +959,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>51.32</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>51.32</v>
@@ -886,8 +1021,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>56.44</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="C6">
         <v>56.44</v>
@@ -948,8 +1083,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>53.8</v>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7">
         <v>53.8</v>
@@ -1010,8 +1145,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>52.59</v>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
         <v>52.59</v>
@@ -1072,8 +1207,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>58.3</v>
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9">
         <v>58.3</v>
@@ -1134,8 +1269,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>66.5</v>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
       <c r="C10">
         <v>66.5</v>
@@ -1196,8 +1331,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>67.09999999999999</v>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11">
         <v>67.09999999999999</v>
@@ -1221,7 +1356,7 @@
         <v>10.4</v>
       </c>
       <c r="J11">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K11">
         <v>10.4</v>
@@ -1258,8 +1393,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>72.2</v>
+      <c r="B12" t="s">
+        <v>75</v>
       </c>
       <c r="C12">
         <v>72.2</v>
@@ -1283,7 +1418,7 @@
         <v>14.6</v>
       </c>
       <c r="J12">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K12">
         <v>14.6</v>
@@ -1320,8 +1455,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>73.09999999999999</v>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
       <c r="C13">
         <v>73.09999999999999</v>
@@ -1345,7 +1480,7 @@
         <v>13.3</v>
       </c>
       <c r="J13">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K13">
         <v>13.3</v>
@@ -1382,8 +1517,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>68.40000000000001</v>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
       <c r="C14">
         <v>68.40000000000001</v>
@@ -1407,7 +1542,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J14">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K14">
         <v>8.800000000000001</v>
@@ -1444,8 +1579,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>60.9</v>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
       <c r="C15">
         <v>60.9</v>
@@ -1506,8 +1641,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>57.5</v>
+      <c r="B16" t="s">
+        <v>79</v>
       </c>
       <c r="C16">
         <v>57.5</v>
@@ -1531,7 +1666,7 @@
         <v>6.7</v>
       </c>
       <c r="J16">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K16">
         <v>6.7</v>
@@ -1568,8 +1703,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>60.7</v>
+      <c r="B17" t="s">
+        <v>80</v>
       </c>
       <c r="C17">
         <v>60.7</v>
@@ -1593,7 +1728,7 @@
         <v>12.5</v>
       </c>
       <c r="J17">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K17">
         <v>12.5</v>
@@ -1630,8 +1765,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>69.7</v>
+      <c r="B18" t="s">
+        <v>81</v>
       </c>
       <c r="C18">
         <v>69.7</v>
@@ -1692,8 +1827,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>70.40000000000001</v>
+      <c r="B19" t="s">
+        <v>82</v>
       </c>
       <c r="C19">
         <v>70.40000000000001</v>
@@ -1717,7 +1852,7 @@
         <v>7.8</v>
       </c>
       <c r="J19">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K19">
         <v>7.8</v>
@@ -1754,8 +1889,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>75.64</v>
+      <c r="B20" t="s">
+        <v>83</v>
       </c>
       <c r="C20">
         <v>75.64</v>
@@ -1816,8 +1951,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>73.11</v>
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
       <c r="C21">
         <v>73.11</v>
@@ -1841,7 +1976,7 @@
         <v>10.1</v>
       </c>
       <c r="J21">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K21">
         <v>10.1</v>
@@ -1878,8 +2013,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>75.78</v>
+      <c r="B22" t="s">
+        <v>85</v>
       </c>
       <c r="C22">
         <v>75.78</v>
@@ -1903,7 +2038,7 @@
         <v>17.97</v>
       </c>
       <c r="J22">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K22">
         <v>17.97</v>
@@ -1940,8 +2075,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>70.54000000000001</v>
+      <c r="B23" t="s">
+        <v>86</v>
       </c>
       <c r="C23">
         <v>70.54000000000001</v>
@@ -2002,8 +2137,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>65.53</v>
+      <c r="B24" t="s">
+        <v>87</v>
       </c>
       <c r="C24">
         <v>65.53</v>
@@ -2064,8 +2199,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>59.89</v>
+      <c r="B25" t="s">
+        <v>88</v>
       </c>
       <c r="C25">
         <v>59.89</v>
@@ -2089,7 +2224,7 @@
         <v>9.35</v>
       </c>
       <c r="J25">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="K25">
         <v>9.35</v>
@@ -2126,8 +2261,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>65.67</v>
+      <c r="B26" t="s">
+        <v>89</v>
       </c>
       <c r="C26">
         <v>65.67</v>
@@ -2188,8 +2323,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>68.19</v>
+      <c r="B27" t="s">
+        <v>90</v>
       </c>
       <c r="C27">
         <v>68.19</v>
@@ -2250,8 +2385,8 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>75.66</v>
+      <c r="B28" t="s">
+        <v>91</v>
       </c>
       <c r="C28">
         <v>75.66</v>
@@ -2312,8 +2447,8 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>75.81</v>
+      <c r="B29" t="s">
+        <v>92</v>
       </c>
       <c r="C29">
         <v>75.81</v>
@@ -2374,8 +2509,8 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>73.63</v>
+      <c r="B30" t="s">
+        <v>93</v>
       </c>
       <c r="C30">
         <v>73.63</v>
@@ -2436,8 +2571,8 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>72.11</v>
+      <c r="B31" t="s">
+        <v>94</v>
       </c>
       <c r="C31">
         <v>72.11</v>
@@ -2498,8 +2633,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>79.34</v>
+      <c r="B32" t="s">
+        <v>95</v>
       </c>
       <c r="C32">
         <v>79.34</v>
@@ -2560,8 +2695,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>88.03</v>
+      <c r="B33" t="s">
+        <v>96</v>
       </c>
       <c r="C33">
         <v>88.03</v>
@@ -2622,8 +2757,8 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>97.09</v>
+      <c r="B34" t="s">
+        <v>97</v>
       </c>
       <c r="C34">
         <v>97.09</v>
@@ -2684,8 +2819,8 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>105.84</v>
+      <c r="B35" t="s">
+        <v>98</v>
       </c>
       <c r="C35">
         <v>105.84</v>
@@ -2746,8 +2881,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>113.55</v>
+      <c r="B36" t="s">
+        <v>99</v>
       </c>
       <c r="C36">
         <v>113.55</v>
@@ -2808,8 +2943,8 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>127.44</v>
+      <c r="B37" t="s">
+        <v>100</v>
       </c>
       <c r="C37">
         <v>127.44</v>
@@ -2870,8 +3005,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>131.05</v>
+      <c r="B38" t="s">
+        <v>101</v>
       </c>
       <c r="C38">
         <v>131.05</v>
@@ -2932,8 +3067,8 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>135.12</v>
+      <c r="B39" t="s">
+        <v>102</v>
       </c>
       <c r="C39">
         <v>135.12</v>
@@ -2994,8 +3129,8 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>231.08</v>
+      <c r="B40" t="s">
+        <v>103</v>
       </c>
       <c r="C40">
         <v>231.08</v>
@@ -3056,8 +3191,8 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>225.12</v>
+      <c r="B41" t="s">
+        <v>104</v>
       </c>
       <c r="C41">
         <v>225.12</v>
@@ -3118,8 +3253,8 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>234.11</v>
+      <c r="B42" t="s">
+        <v>105</v>
       </c>
       <c r="C42">
         <v>234.11</v>
@@ -3180,8 +3315,8 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>250.23</v>
+      <c r="B43" t="s">
+        <v>106</v>
       </c>
       <c r="C43">
         <v>250.23</v>
@@ -3242,8 +3377,8 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>255.41</v>
+      <c r="B44" t="s">
+        <v>107</v>
       </c>
       <c r="C44">
         <v>255.41</v>
@@ -3304,8 +3439,8 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>252.17</v>
+      <c r="B45" t="s">
+        <v>108</v>
       </c>
       <c r="C45">
         <v>252.17</v>
@@ -3366,8 +3501,8 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>259.26</v>
+      <c r="B46" t="s">
+        <v>109</v>
       </c>
       <c r="C46">
         <v>259.26</v>
